--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\php\скрипт подсчета затрат на человека на основе excel шаблона\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A83B48-ED77-4AF9-8062-5B89F31FD495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D707E6-3EBF-4329-9B17-321C02C59F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Потратил</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Дима|Николай|Иван|Коля</t>
+  </si>
+  <si>
+    <t>Сделано Максимом Gr_Atlas https://github.com/MaximAtlas Поддержите рублем</t>
   </si>
 </sst>
 </file>
@@ -220,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -232,12 +235,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,6 +243,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +550,7 @@
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="12.140625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
@@ -559,50 +565,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
       <c r="Q1" s="4"/>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="4"/>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="J2" s="6" t="s">
         <v>0</v>
       </c>
@@ -644,15 +650,15 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="J3" s="5">
         <v>5000</v>
       </c>
@@ -697,11 +703,11 @@
       <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="J4" s="5">
         <v>2000</v>
       </c>
@@ -734,9 +740,9 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="J5" s="5">
         <v>1000</v>
       </c>
@@ -799,6 +805,9 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I9" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
@@ -813,6 +822,7 @@
       <c r="X9" s="5"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I10" s="12"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -827,6 +837,7 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I11" s="12"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -841,6 +852,7 @@
       <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I12" s="12"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -855,6 +867,7 @@
       <c r="X12" s="5"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I13" s="12"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -869,6 +882,7 @@
       <c r="X13" s="5"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I14" s="12"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -882,8 +896,17 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
     </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I16" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="I9:I16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F1:H1"/>
@@ -892,8 +915,6 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
